--- a/www/IndicatorsPerCountry/Iran_CopperProduction_TerritorialRef_1946_2012_CCode_364.xlsx
+++ b/www/IndicatorsPerCountry/Iran_CopperProduction_TerritorialRef_1946_2012_CCode_364.xlsx
@@ -216,13 +216,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Iran_CopperProduction_TerritorialRef_1946_2012_CCode_364.xlsx
+++ b/www/IndicatorsPerCountry/Iran_CopperProduction_TerritorialRef_1946_2012_CCode_364.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="54">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,154 +39,106 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>90</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>84.3</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>86.6</t>
+  </si>
+  <si>
+    <t>100.04</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>110</t>
+    <t>107.6</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>138.3</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>151</t>
   </si>
   <si>
     <t>160</t>
   </si>
   <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>396</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>439</t>
-  </si>
-  <si>
-    <t>414</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>533</t>
-  </si>
-  <si>
-    <t>613</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>620</t>
-  </si>
-  <si>
-    <t>752</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>889</t>
-  </si>
-  <si>
-    <t>946</t>
-  </si>
-  <si>
-    <t>1090</t>
-  </si>
-  <si>
-    <t>1070</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>1310</t>
-  </si>
-  <si>
-    <t>1630</t>
+    <t>217</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>245.2</t>
   </si>
   <si>
     <t>Description</t>
@@ -3551,7 +3503,7 @@
         <v>1920.0</v>
       </c>
       <c r="E193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
@@ -3568,7 +3520,7 @@
         <v>1921.0</v>
       </c>
       <c r="E194" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
@@ -3585,7 +3537,7 @@
         <v>1922.0</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
@@ -3602,7 +3554,7 @@
         <v>1923.0</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
@@ -3619,7 +3571,7 @@
         <v>1924.0</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
@@ -3636,7 +3588,7 @@
         <v>1925.0</v>
       </c>
       <c r="E198" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
@@ -3653,7 +3605,7 @@
         <v>1926.0</v>
       </c>
       <c r="E199" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
@@ -4027,7 +3979,7 @@
         <v>1948.0</v>
       </c>
       <c r="E221" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222">
@@ -4112,7 +4064,7 @@
         <v>1953.0</v>
       </c>
       <c r="E226" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
@@ -4129,7 +4081,7 @@
         <v>1954.0</v>
       </c>
       <c r="E227" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228">
@@ -4146,7 +4098,7 @@
         <v>1955.0</v>
       </c>
       <c r="E228" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
@@ -4163,7 +4115,7 @@
         <v>1956.0</v>
       </c>
       <c r="E229" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230">
@@ -4180,7 +4132,7 @@
         <v>1957.0</v>
       </c>
       <c r="E230" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
@@ -4197,7 +4149,7 @@
         <v>1958.0</v>
       </c>
       <c r="E231" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232">
@@ -4214,7 +4166,7 @@
         <v>1959.0</v>
       </c>
       <c r="E232" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
@@ -4231,7 +4183,7 @@
         <v>1960.0</v>
       </c>
       <c r="E233" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
@@ -4248,7 +4200,7 @@
         <v>1961.0</v>
       </c>
       <c r="E234" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
@@ -4265,7 +4217,7 @@
         <v>1962.0</v>
       </c>
       <c r="E235" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
@@ -4282,7 +4234,7 @@
         <v>1963.0</v>
       </c>
       <c r="E236" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
@@ -4299,7 +4251,7 @@
         <v>1964.0</v>
       </c>
       <c r="E237" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
@@ -4316,7 +4268,7 @@
         <v>1965.0</v>
       </c>
       <c r="E238" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
@@ -4333,7 +4285,7 @@
         <v>1966.0</v>
       </c>
       <c r="E239" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240">
@@ -4350,7 +4302,7 @@
         <v>1967.0</v>
       </c>
       <c r="E240" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241">
@@ -4367,7 +4319,7 @@
         <v>1968.0</v>
       </c>
       <c r="E241" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242">
@@ -4384,7 +4336,7 @@
         <v>1969.0</v>
       </c>
       <c r="E242" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="243">
@@ -4401,7 +4353,7 @@
         <v>1970.0</v>
       </c>
       <c r="E243" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="244">
@@ -4418,7 +4370,7 @@
         <v>1971.0</v>
       </c>
       <c r="E244" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245">
@@ -4435,7 +4387,7 @@
         <v>1972.0</v>
       </c>
       <c r="E245" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246">
@@ -4452,7 +4404,7 @@
         <v>1973.0</v>
       </c>
       <c r="E246" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247">
@@ -4469,7 +4421,7 @@
         <v>1974.0</v>
       </c>
       <c r="E247" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="248">
@@ -4486,7 +4438,7 @@
         <v>1975.0</v>
       </c>
       <c r="E248" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249">
@@ -4503,7 +4455,7 @@
         <v>1976.0</v>
       </c>
       <c r="E249" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250">
@@ -4520,7 +4472,7 @@
         <v>1977.0</v>
       </c>
       <c r="E250" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251">
@@ -4537,7 +4489,7 @@
         <v>1978.0</v>
       </c>
       <c r="E251" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252">
@@ -4554,7 +4506,7 @@
         <v>1979.0</v>
       </c>
       <c r="E252" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253">
@@ -4571,7 +4523,7 @@
         <v>1980.0</v>
       </c>
       <c r="E253" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254">
@@ -4588,7 +4540,7 @@
         <v>1981.0</v>
       </c>
       <c r="E254" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255">
@@ -4605,7 +4557,7 @@
         <v>1982.0</v>
       </c>
       <c r="E255" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256">
@@ -4622,7 +4574,7 @@
         <v>1983.0</v>
       </c>
       <c r="E256" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257">
@@ -4639,7 +4591,7 @@
         <v>1984.0</v>
       </c>
       <c r="E257" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="258">
@@ -4656,7 +4608,7 @@
         <v>1985.0</v>
       </c>
       <c r="E258" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259">
@@ -4673,7 +4625,7 @@
         <v>1986.0</v>
       </c>
       <c r="E259" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260">
@@ -4690,7 +4642,7 @@
         <v>1987.0</v>
       </c>
       <c r="E260" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261">
@@ -4707,7 +4659,7 @@
         <v>1988.0</v>
       </c>
       <c r="E261" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="262">
@@ -4724,7 +4676,7 @@
         <v>1989.0</v>
       </c>
       <c r="E262" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="263">
@@ -4741,7 +4693,7 @@
         <v>1990.0</v>
       </c>
       <c r="E263" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264">
@@ -4758,7 +4710,7 @@
         <v>1991.0</v>
       </c>
       <c r="E264" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="265">
@@ -4775,7 +4727,7 @@
         <v>1992.0</v>
       </c>
       <c r="E265" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="266">
@@ -4792,7 +4744,7 @@
         <v>1993.0</v>
       </c>
       <c r="E266" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="267">
@@ -4809,7 +4761,7 @@
         <v>1994.0</v>
       </c>
       <c r="E267" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="268">
@@ -4826,7 +4778,7 @@
         <v>1995.0</v>
       </c>
       <c r="E268" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="269">
@@ -4843,7 +4795,7 @@
         <v>1996.0</v>
       </c>
       <c r="E269" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="270">
@@ -4860,7 +4812,7 @@
         <v>1997.0</v>
       </c>
       <c r="E270" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="271">
@@ -4877,7 +4829,7 @@
         <v>1998.0</v>
       </c>
       <c r="E271" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="272">
@@ -4894,7 +4846,7 @@
         <v>1999.0</v>
       </c>
       <c r="E272" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="273">
@@ -4911,7 +4863,7 @@
         <v>2000.0</v>
       </c>
       <c r="E273" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="274">
@@ -4928,7 +4880,7 @@
         <v>2001.0</v>
       </c>
       <c r="E274" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="275">
@@ -4945,7 +4897,7 @@
         <v>2002.0</v>
       </c>
       <c r="E275" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="276">
@@ -4962,7 +4914,7 @@
         <v>2003.0</v>
       </c>
       <c r="E276" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="277">
@@ -4979,7 +4931,7 @@
         <v>2004.0</v>
       </c>
       <c r="E277" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="278">
@@ -4996,7 +4948,7 @@
         <v>2005.0</v>
       </c>
       <c r="E278" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="279">
@@ -5013,7 +4965,7 @@
         <v>2006.0</v>
       </c>
       <c r="E279" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="280">
@@ -5030,7 +4982,7 @@
         <v>2007.0</v>
       </c>
       <c r="E280" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="281">
@@ -5047,7 +4999,7 @@
         <v>2008.0</v>
       </c>
       <c r="E281" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="282">
@@ -5064,7 +5016,7 @@
         <v>2009.0</v>
       </c>
       <c r="E282" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="283">
@@ -5081,7 +5033,7 @@
         <v>2010.0</v>
       </c>
       <c r="E283" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="284">
@@ -5098,7 +5050,7 @@
         <v>2011.0</v>
       </c>
       <c r="E284" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="285">
@@ -5115,7 +5067,7 @@
         <v>2012.0</v>
       </c>
       <c r="E285" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -5133,50 +5085,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
